--- a/Utils/AssignmentWriteData.xlsx
+++ b/Utils/AssignmentWriteData.xlsx
@@ -12,36 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Unique Names</t>
+    <t>Unique Names-A</t>
   </si>
   <si>
-    <t>Unique Locations</t>
+    <t>Unique Names-B</t>
   </si>
   <si>
-    <t>Duplicates</t>
+    <t>Duplicates Names- A &amp; B</t>
+  </si>
+  <si>
+    <t>Anavi</t>
   </si>
   <si>
     <t>Anirudh</t>
   </si>
   <si>
+    <t>Ankitaa</t>
+  </si>
+  <si>
     <t>Anvith</t>
   </si>
   <si>
-    <t>Ankitaa</t>
+    <t>Ankith</t>
   </si>
   <si>
-    <t>Chennai</t>
+    <t>Yamini</t>
   </si>
   <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
+    <t>Haru</t>
   </si>
 </sst>
 </file>
@@ -86,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -104,45 +104,30 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="C2" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="0">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
